--- a/biology/Botanique/Parc_maritime_de_Katariina/Parc_maritime_de_Katariina.xlsx
+++ b/biology/Botanique/Parc_maritime_de_Katariina/Parc_maritime_de_Katariina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc maritime de Katariina (en finnois : Katariinan meripuisto) est un parc du quartier de Katariina de Kotka en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc maritime de Katariina (en finnois : Katariinan meripuisto) est un parc du quartier de Katariina de Kotka en Finlande.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de plus de 20 hectares est situé dans l'île de Kotkansaari au centre de Kotka.
 Dans le parc se trouvent les ruines du Fort Katarina de la Forteresse maritime de Ruotsinsalmi.
